--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N2">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O2">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P2">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q2">
-        <v>1736.355459634693</v>
+        <v>1593.564133159892</v>
       </c>
       <c r="R2">
-        <v>15627.19913671224</v>
+        <v>14342.07719843902</v>
       </c>
       <c r="S2">
-        <v>0.5700583558123832</v>
+        <v>0.4752927881731331</v>
       </c>
       <c r="T2">
-        <v>0.5700583558123832</v>
+        <v>0.4752927881731333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.605727</v>
       </c>
       <c r="O3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q3">
-        <v>449.0916563338747</v>
+        <v>390.5912220295198</v>
       </c>
       <c r="R3">
-        <v>4041.824907004871</v>
+        <v>3515.320998265679</v>
       </c>
       <c r="S3">
-        <v>0.1474401164797266</v>
+        <v>0.1164968432028176</v>
       </c>
       <c r="T3">
-        <v>0.1474401164797266</v>
+        <v>0.1164968432028176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N4">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q4">
-        <v>148.39650643676</v>
+        <v>282.3504005424426</v>
       </c>
       <c r="R4">
-        <v>1335.56855793084</v>
+        <v>2541.153604881984</v>
       </c>
       <c r="S4">
-        <v>0.04871967199932598</v>
+        <v>0.08421318372013929</v>
       </c>
       <c r="T4">
-        <v>0.04871967199932598</v>
+        <v>0.08421318372013933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N5">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O5">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P5">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q5">
-        <v>2.844604870652223</v>
+        <v>1.311299765499556</v>
       </c>
       <c r="R5">
-        <v>25.60144383587</v>
+        <v>11.801697889496</v>
       </c>
       <c r="S5">
-        <v>0.0009339048444844724</v>
+        <v>0.0003911052644233458</v>
       </c>
       <c r="T5">
-        <v>0.0009339048444844724</v>
+        <v>0.000391105264423346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N6">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O6">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P6">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q6">
-        <v>310.069840480646</v>
+        <v>327.1922006415662</v>
       </c>
       <c r="R6">
-        <v>2790.628564325814</v>
+        <v>2944.729805774096</v>
       </c>
       <c r="S6">
-        <v>0.1017982248223486</v>
+        <v>0.09758759630405772</v>
       </c>
       <c r="T6">
-        <v>0.1017982248223486</v>
+        <v>0.09758759630405775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.605727</v>
       </c>
       <c r="O7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q7">
         <v>80.19658501832912</v>
@@ -883,10 +883,10 @@
         <v>721.769265164962</v>
       </c>
       <c r="S7">
-        <v>0.02632913274965882</v>
+        <v>0.0239192497510239</v>
       </c>
       <c r="T7">
-        <v>0.02632913274965882</v>
+        <v>0.02391924975102391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N8">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q8">
-        <v>26.49992017672</v>
+        <v>57.97247000177065</v>
       </c>
       <c r="R8">
-        <v>238.49928159048</v>
+        <v>521.752230015936</v>
       </c>
       <c r="S8">
-        <v>0.008700120036641929</v>
+        <v>0.01729073611225677</v>
       </c>
       <c r="T8">
-        <v>0.008700120036641929</v>
+        <v>0.01729073611225678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N9">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O9">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P9">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q9">
-        <v>0.5079755839044444</v>
+        <v>0.2692373949982222</v>
       </c>
       <c r="R9">
-        <v>4.57178025514</v>
+        <v>2.423136554984</v>
       </c>
       <c r="S9">
-        <v>0.0001667721459604394</v>
+        <v>8.030212872288369E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001667721459604394</v>
+        <v>8.030212872288372E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N10">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O10">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P10">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q10">
-        <v>214.260031388835</v>
+        <v>428.2329305504018</v>
       </c>
       <c r="R10">
-        <v>1928.340282499515</v>
+        <v>3854.096374953616</v>
       </c>
       <c r="S10">
-        <v>0.07034315498712788</v>
+        <v>0.1277237729649819</v>
       </c>
       <c r="T10">
-        <v>0.07034315498712788</v>
+        <v>0.1277237729649819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.605727</v>
       </c>
       <c r="O11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q11">
-        <v>55.41629845930501</v>
+        <v>104.9622165662669</v>
       </c>
       <c r="R11">
-        <v>498.7466861337451</v>
+        <v>944.6599490964021</v>
       </c>
       <c r="S11">
-        <v>0.01819358116428877</v>
+        <v>0.03130579028889808</v>
       </c>
       <c r="T11">
-        <v>0.01819358116428877</v>
+        <v>0.03130579028889809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N12">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q12">
-        <v>18.3115962522</v>
+        <v>75.87503819291733</v>
       </c>
       <c r="R12">
-        <v>164.8043662698</v>
+        <v>682.875343736256</v>
       </c>
       <c r="S12">
-        <v>0.006011832654372219</v>
+        <v>0.02263031509371719</v>
       </c>
       <c r="T12">
-        <v>0.006011832654372219</v>
+        <v>0.0226303150937172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N13">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O13">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P13">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q13">
-        <v>0.35101403085</v>
+        <v>0.3523810116737778</v>
       </c>
       <c r="R13">
-        <v>3.15912627765</v>
+        <v>3.171429105064</v>
       </c>
       <c r="S13">
-        <v>0.0001152405057288939</v>
+        <v>0.0001051003533855857</v>
       </c>
       <c r="T13">
-        <v>0.0001152405057288939</v>
+        <v>0.0001051003533855858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H14">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I14">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J14">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N14">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O14">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P14">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q14">
-        <v>2.693175521171</v>
+        <v>6.981251040313777</v>
       </c>
       <c r="R14">
-        <v>24.23857969053899</v>
+        <v>62.83125936282399</v>
       </c>
       <c r="S14">
-        <v>0.0008841894676542202</v>
+        <v>0.002082211944183104</v>
       </c>
       <c r="T14">
-        <v>0.00088418946765422</v>
+        <v>0.002082211944183105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H15">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I15">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J15">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.605727</v>
       </c>
       <c r="O15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q15">
-        <v>0.6965639719041111</v>
+        <v>1.711142537905889</v>
       </c>
       <c r="R15">
-        <v>6.269075747136999</v>
+        <v>15.400282841153</v>
       </c>
       <c r="S15">
-        <v>0.0002286871103140031</v>
+        <v>0.000510361453850153</v>
       </c>
       <c r="T15">
-        <v>0.0002286871103140031</v>
+        <v>0.0005103614538501532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H16">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I16">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J16">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N16">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q16">
-        <v>0.23017051972</v>
+        <v>1.236949920309333</v>
       </c>
       <c r="R16">
-        <v>2.07153467748</v>
+        <v>11.132549282784</v>
       </c>
       <c r="S16">
-        <v>7.55666861298492E-05</v>
+        <v>0.0003689298499010388</v>
       </c>
       <c r="T16">
-        <v>7.556668612984919E-05</v>
+        <v>0.0003689298499010389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H17">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I17">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J17">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N17">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O17">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P17">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q17">
-        <v>0.004412126654444444</v>
+        <v>0.005744678021777777</v>
       </c>
       <c r="R17">
-        <v>0.03970913988999999</v>
+        <v>0.05170210219599999</v>
       </c>
       <c r="S17">
-        <v>1.448533854236131E-06</v>
+        <v>1.713394508141657E-06</v>
       </c>
       <c r="T17">
-        <v>1.448533854236131E-06</v>
+        <v>1.713394508141658E-06</v>
       </c>
     </row>
   </sheetData>
